--- a/lab1/свод/свод.xlsx
+++ b/lab1/свод/свод.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouroboros/Work/neural-networks/lab1/свод/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC0B645-1731-2841-986B-17ABA78EAE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212D52E0-40A1-7B4F-A1A8-BEA043C91B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{DDC1664C-2BAF-2447-9E0A-72EEF4639817}"/>
   </bookViews>
@@ -122,37 +122,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -806,6 +776,9 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:v>S Бинарная</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
